--- a/biology/Botanique/Cordia_sebestena/Cordia_sebestena.xlsx
+++ b/biology/Botanique/Cordia_sebestena/Cordia_sebestena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordia sebestena ou sébestier, appelé  mapou rouge en Martinique[1], est une espèce d'arbre du genre Cordia de la famille des Boraginaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordia sebestena ou sébestier, appelé  mapou rouge en Martinique, est une espèce d'arbre du genre Cordia de la famille des Boraginaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cordia laevis Jacq.
 Cordia speciosa Salisb.
@@ -543,14 +557,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petit arbre ou arbuste mesurant de 4 à 6 m de hauteur qui résiste au vent et à la sécheresse[2].
-Écorce brune, rude, gercée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit arbre ou arbuste mesurant de 4 à 6 m de hauteur qui résiste au vent et à la sécheresse.
+Écorce brune, rude, gercée.
 Feuilles simples, alternées et pétiolées ; grandes, jusqu'à 20 cm de long, larges, elliptiques et velues.
 Fleurs orange à rouge vif, en groupe aux extrémités des branches, mesurant environ 2,5 cm avec de 5 à 7 pétales
 Floraison toute l'année
-Fruit: drupe ovoïde et blanche à la maturité, longue jusqu'à 3cm avec un gros noyau [3],[1].
+Fruit: drupe ovoïde et blanche à la maturité, longue jusqu'à 3cm avec un gros noyau ,.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce originaire des Caraibes
 </t>
@@ -610,7 +628,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivée comme arbuste d'ornement
 </t>
